--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2558360.091355542</v>
+        <v>2692095.438805008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5366626.49571579</v>
+        <v>5738021.0742024</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>189.2236312689488</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>195.5104445397023</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>23.52708430670896</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.76765315858641</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>271.6838240345951</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>45.56984793551693</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.51355369736979</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>129.8806935114352</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>193.723760465999</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>154.6054260348455</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>32.14658498571724</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>97.71715041002119</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>162.1133599029203</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.0640262974187</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>218.008057705788</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.375222068614</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>50.21746919384433</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>109.826847404852</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>75.25534642052898</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>154.1156291734915</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>78.16614128474212</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2953,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>159.1431934048314</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>125.7277749598557</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967035</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.0596678020105</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3518,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3661,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>102.1026425880272</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>245.1849979017278</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>106.8587867191415</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>55.0522163812357</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>228.9130160223853</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>21.35786757462152</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>71.11113334273318</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>456.8988997477844</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>434.0385738014886</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>414.786357026893</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>392.8498212151546</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>371.7660434449589</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884635</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>517.6410595347475</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>996.5799837771773</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1475.518908019607</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1639.604489409272</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1639.604489409272</v>
       </c>
       <c r="V2" t="n">
-        <v>1664.703751417078</v>
+        <v>1282.115074535522</v>
       </c>
       <c r="W2" t="n">
-        <v>1664.703751417078</v>
+        <v>885.7237248358687</v>
       </c>
       <c r="X2" t="n">
-        <v>1657.02415662523</v>
+        <v>878.04413004402</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.727290620524</v>
+        <v>472.7068599989104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000798</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>602.6104029955975</v>
+        <v>789.3385488143385</v>
       </c>
       <c r="L3" t="n">
-        <v>1153.275937980036</v>
+        <v>789.3385488143385</v>
       </c>
       <c r="M3" t="n">
-        <v>1703.941472964474</v>
+        <v>1268.277473056768</v>
       </c>
       <c r="N3" t="n">
-        <v>1703.941472964474</v>
+        <v>1368.450841630397</v>
       </c>
       <c r="O3" t="n">
-        <v>1703.941472964474</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.2887579908834</v>
+        <v>683.9959456256229</v>
       </c>
       <c r="C4" t="n">
-        <v>378.3161948697993</v>
+        <v>512.0233825045389</v>
       </c>
       <c r="D4" t="n">
-        <v>378.3161948697993</v>
+        <v>348.7066096313096</v>
       </c>
       <c r="E4" t="n">
-        <v>378.3161948697993</v>
+        <v>182.4984037841632</v>
       </c>
       <c r="F4" t="n">
-        <v>378.3161948697993</v>
+        <v>182.4984037841632</v>
       </c>
       <c r="G4" t="n">
-        <v>212.0592251640315</v>
+        <v>182.4984037841632</v>
       </c>
       <c r="H4" t="n">
-        <v>68.26295667218588</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>38.7126666327444</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>38.7126666327444</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>393.4019879271652</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.587782897416</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1162.079293773452</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453215</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375116</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1888.068151303051</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1717.933103822186</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1717.933103822186</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1437.748655322491</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.213795394889</v>
+        <v>1375.357086475434</v>
       </c>
       <c r="W4" t="n">
-        <v>1209.361391567402</v>
+        <v>1100.504682647947</v>
       </c>
       <c r="X4" t="n">
-        <v>966.7974950132069</v>
+        <v>1100.504682647947</v>
       </c>
       <c r="Y4" t="n">
-        <v>740.454726702949</v>
+        <v>874.1619143376886</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1212.438652888478</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>785.5379229017783</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>362.2453020867786</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>340.3087662750402</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>319.2249885048445</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>318.9263301346971</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2178.881103032561</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>1957.955532077195</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.54347914431</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1228.246613139604</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219148</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008308</v>
+        <v>376.7891759775239</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>213.4724031042946</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4741,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1353.021175686368</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W7" t="n">
-        <v>1353.021175686368</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X7" t="n">
-        <v>1110.457279132173</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="Y7" t="n">
-        <v>884.1145108219148</v>
+        <v>738.9277078106735</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>1133.6911139303</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9781963422939</v>
+        <v>1110.830787984004</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1091.578571209409</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>1069.64203539767</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>644.5178535870707</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>240.1787911765193</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.744155457482</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457482</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.024156625229</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1149.499074181426</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.9166383730114</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="C10" t="n">
-        <v>511.9166383730114</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D10" t="n">
-        <v>348.5998654997821</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>348.5998654997821</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>176.7380912743425</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1109.130180341771</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.082607085077</v>
+        <v>882.7874120315128</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1056.064702311152</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1056.064702311152</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>632.7720814961519</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>292.0244587153427</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="L11" t="n">
-        <v>1142.793917289187</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.793917289187</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N11" t="n">
-        <v>1943.23552968699</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>2743.677142084793</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839608</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2292.970335480044</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1881.250336647791</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1475.913066602682</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>1136.821252174186</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>1873.369781077302</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.369781077302</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>603.7382302102652</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>603.7382302102652</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1784.582169342129</v>
+        <v>1629.208766294176</v>
       </c>
       <c r="V13" t="n">
-        <v>1784.582169342129</v>
+        <v>1347.497298902205</v>
       </c>
       <c r="W13" t="n">
-        <v>1784.582169342129</v>
+        <v>1072.644895074718</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>830.0809985205232</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>603.7382302102652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2077.103995302137</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1650.203265315437</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.910644500437</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>338.6504695827671</v>
       </c>
       <c r="K14" t="n">
-        <v>468.8595413818912</v>
+        <v>1054.158777558266</v>
       </c>
       <c r="L14" t="n">
-        <v>1269.301153779694</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M14" t="n">
-        <v>1269.301153779694</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N14" t="n">
-        <v>1269.301153779694</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>2069.742766177497</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>2778.022045335425</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3013.181953884241</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2655.692539010491</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2259.301189310838</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2259.301189310838</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2077.103995302137</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679216</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945952</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1665.565375292398</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>798.2592150595294</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>798.2592150595294</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>634.9424421863001</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2198.056564597094</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1917.872116097398</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1917.872116097398</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="17">
@@ -5513,43 +5515,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5887,31 +5889,31 @@
         <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>326.3817789554925</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>326.3817789554925</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E22" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>4395.762986183789</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>4395.762986183789</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1757.664925652886</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.664925652886</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1483.587973045304</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,10 +6466,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
         <v>2011.818868109901</v>
@@ -6497,10 +6499,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
@@ -6546,10 +6548,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>601.2341827829796</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>429.2616196618956</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
         <v>102.3027134058285</v>
@@ -6658,13 +6660,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1017.742919805303</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>791.4001514950452</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6783,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3602.366365529882</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3602.366365529882</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>3439.049592656653</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E34" t="n">
-        <v>3272.841386809506</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>4818.002870325859</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>4818.002870325859</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4536.291402933888</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4261.438999106401</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>4018.875102552206</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>3792.532334241947</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,58 +6925,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.0699265966</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7023,19 +7025,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.5863609803849</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>391.6137978593009</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>391.6137978593009</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>391.6137978593009</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7181,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991801</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478502</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3375.975369221653</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>3272.841386809504</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D40" t="n">
-        <v>3272.841386809504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>3272.841386809504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>3100.979612584065</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291425</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291425</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>4871.796322517325</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>4591.61187401763</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4309.900406625658</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.048002798172</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>3792.484106243977</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>3566.141337933719</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1744.338745519643</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1317.438015532943</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>894.1453947179433</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1269.301153779693</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>1269.301153779693</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O41" t="n">
-        <v>2069.742766177495</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335423</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2397.337629606902</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2149.676015564753</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2149.676015564753</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1744.338745519643</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>3561.675246955778</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>3561.675246955778</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816967</v>
+        <v>3561.675246955778</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>3561.675246955778</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C43" t="n">
-        <v>975.8907098999449</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267156</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2137.157009506747</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U43" t="n">
-        <v>2137.157009506747</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V43" t="n">
-        <v>1855.445542114776</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.593138287289</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X43" t="n">
-        <v>1338.029241733095</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679213</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.632070870094</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1580.632070870094</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2381.073683267896</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P44" t="n">
-        <v>3089.352962425824</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3002.882256130126</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3002.882256130126</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2591.162257297874</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.824987252764</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290552</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808057</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323342</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.495589596279</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279183</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496787</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259097</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259097</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259097</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259097</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>1425.419894259097</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>2225.8615066569</v>
+        <v>3309.623006780059</v>
       </c>
       <c r="N45" t="n">
-        <v>3026.303119054702</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839606</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400861</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.903341698539</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618176</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757442</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357323</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710615</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>897.6957452509498</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C46" t="n">
-        <v>876.122141640221</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D46" t="n">
-        <v>712.8053687669917</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>546.5971629198452</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>374.7353886944056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679213</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1831.620782654955</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1831.620782654955</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V46" t="n">
-        <v>1831.620782654955</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W46" t="n">
-        <v>1556.768378827468</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.204482273273</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="Y46" t="n">
-        <v>1087.861713963016</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>522.0887335865924</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540534013</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>521.0563139884156</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>501.6211175340756</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>506.1759249873028</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662975</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>122.5282489949851</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761917</v>
       </c>
       <c r="P3" t="n">
-        <v>172.5227428869331</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.64739370150473</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8228,13 +8230,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>379.6111138811506</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>467.702658662831</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8468,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>379.7269667620468</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
@@ -8550,10 +8552,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608534</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,22 +8698,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>532.9595868150955</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>767.0851935457782</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>69.11270732058333</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350194</v>
       </c>
       <c r="K14" t="n">
-        <v>77.75847157077246</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234437</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>896.3899752251272</v>
       </c>
       <c r="P15" t="n">
-        <v>231.6742813916002</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885287</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1117.346331829804</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>604.3877546542399</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>279.5761010481211</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9963,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,13 +10114,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
@@ -10355,10 +10357,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N32" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,10 +10597,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>998.7503947055942</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10671,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>574.9403427290242</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>56.96224792397903</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>649.6845753175837</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>531.4824702806457</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>991.4483453949176</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766258</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010019</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659256</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>182.3414043154894</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222296</v>
+        <v>26.30381795590436</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>259.6038105507007</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>86.31857771728002</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.13019988286487</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.9086752760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>114.3286545948307</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>162.2770323843601</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>89.290777368146</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24142,10 +24144,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>86.02262841516139</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>86.37998250393285</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.540411739665643</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1781793365033</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>26.08348868117466</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.15019490184591</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>147.2424383009288</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.0471675772175</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>169.0271242459197</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>125.0015047026277</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>148.8949699152516</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>169.0271242459197</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364667.1980024028</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097678</v>
@@ -26320,40 +26322,40 @@
         <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="G2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="I2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="J2" t="n">
         <v>491776.6027452664</v>
       </c>
       <c r="K2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="L2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="L2" t="n">
-        <v>491776.6027452662</v>
-      </c>
       <c r="M2" t="n">
+        <v>491776.602745266</v>
+      </c>
+      <c r="N2" t="n">
         <v>491776.6027452665</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="O2" t="n">
-        <v>364667.1980024025</v>
-      </c>
       <c r="P2" t="n">
-        <v>364667.1980024026</v>
+        <v>491776.6027452665</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695917</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534623</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.6003570194</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139507.7493322929</v>
+        <v>156089.0640777228</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26424,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215406</v>
+        <v>800.060259943367</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215405</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="H4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433672</v>
-      </c>
-      <c r="H4" t="n">
-        <v>800.0602599433294</v>
-      </c>
-      <c r="I4" t="n">
-        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433078</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="M4" t="n">
-        <v>800.0602599433669</v>
-      </c>
       <c r="N4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215404</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215404</v>
+        <v>800.0602599433672</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216135</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116278.6007253093</v>
+        <v>128382.3515402919</v>
       </c>
       <c r="C6" t="n">
-        <v>302683.3341400467</v>
+        <v>279276.500466435</v>
       </c>
       <c r="D6" t="n">
         <v>302683.3341400467</v>
       </c>
       <c r="E6" t="n">
-        <v>239600.0783380568</v>
+        <v>197487.1237402528</v>
       </c>
       <c r="F6" t="n">
-        <v>314931.0294915191</v>
+        <v>413226.4802968932</v>
       </c>
       <c r="G6" t="n">
-        <v>284336.0804853528</v>
+        <v>413226.4802968933</v>
       </c>
       <c r="H6" t="n">
-        <v>413226.4802968935</v>
+        <v>413226.4802968932</v>
       </c>
       <c r="I6" t="n">
         <v>413226.4802968932</v>
       </c>
       <c r="J6" t="n">
-        <v>267692.8103620768</v>
+        <v>286649.2117166041</v>
       </c>
       <c r="K6" t="n">
+        <v>394579.8799398738</v>
+      </c>
+      <c r="L6" t="n">
         <v>413226.4802968933</v>
       </c>
-      <c r="L6" t="n">
-        <v>413226.4802968932</v>
-      </c>
       <c r="M6" t="n">
-        <v>350352.5433315196</v>
+        <v>233162.6088417253</v>
       </c>
       <c r="N6" t="n">
+        <v>413226.4802968934</v>
+      </c>
+      <c r="O6" t="n">
         <v>413226.4802968933</v>
       </c>
-      <c r="O6" t="n">
-        <v>314931.0294915189</v>
-      </c>
       <c r="P6" t="n">
-        <v>314931.029491519</v>
+        <v>413226.4802968934</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>29.49268397686441</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>158.4040761853107</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.24379827041781</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>217.126699559465</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>23.20587070611043</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>57.75377325007406</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.03257009130519</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>149.0136592066162</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>101.1659342747065</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,10 +27909,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>199.3090946901675</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -28014,22 +28016,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>132.4478150229929</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.4211071786317</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.997529732483768e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>464.2301581780515</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>101.1852207814434</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="P3" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0.01063771760286589</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,10 +35175,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
@@ -35270,10 +35272,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>495.3842250048642</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>743.9884130334502</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494329</v>
       </c>
       <c r="K14" t="n">
-        <v>41.99387077596311</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>873.218085502905</v>
       </c>
       <c r="P15" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540826</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1096.003303616263</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>566.9967952982157</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>257.8052598432924</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N32" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,10 +37317,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>961.4707718711481</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>19.53098502454721</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>494.0512073812138</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>954.1687225604716</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867723</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099016</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>146.2167297108913</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099016</v>
+        <v>3.207037443576385</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2692095.438805008</v>
+        <v>2691398.777599918</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954495</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.2236312689488</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>312.5554463573251</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>61.76765315858641</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>38.44991256722013</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,13 +898,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>45.56984793551693</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>63.45503558037498</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>68.51355369736979</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>312.5111350165828</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>193.723760465999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>97.71715041002119</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>191.0640262974187</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>50.21746919384433</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.19784691145153</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="E19" t="n">
-        <v>75.25534642052898</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2244,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455553</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>51.58543740429417</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>117.2305314060864</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>78.16614128474212</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3283,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>60.15466974967035</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>136.7698321144713</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>111.5720939249235</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.0522163812357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536202</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686398</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>71.11113334273318</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477844</v>
+        <v>528.1740540056945</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014886</v>
+        <v>101.2733240189946</v>
       </c>
       <c r="D2" t="n">
-        <v>414.786357026893</v>
+        <v>82.02110724439895</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151546</v>
+        <v>60.08457143266055</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449589</v>
+        <v>39.00079366246485</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748115</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884635</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231756</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231756</v>
+        <v>498.2899918885884</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347475</v>
+        <v>977.228916131018</v>
       </c>
       <c r="M2" t="n">
-        <v>996.5799837771773</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="N2" t="n">
-        <v>1475.518908019607</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="T2" t="n">
-        <v>1639.604489409272</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="U2" t="n">
-        <v>1639.604489409272</v>
+        <v>1676.751855212289</v>
       </c>
       <c r="V2" t="n">
-        <v>1282.115074535522</v>
+        <v>1676.751855212289</v>
       </c>
       <c r="W2" t="n">
-        <v>885.7237248358687</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>878.04413004402</v>
+        <v>949.3192843019302</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.7068599989104</v>
+        <v>948.0224182972246</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.132000312404</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000798</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231756</v>
+        <v>46.14877825422938</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719086</v>
+        <v>46.14877825422938</v>
       </c>
       <c r="K3" t="n">
-        <v>789.3385488143385</v>
+        <v>46.14877825422938</v>
       </c>
       <c r="L3" t="n">
-        <v>789.3385488143385</v>
+        <v>525.0877024966589</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.277473056768</v>
+        <v>525.0877024966589</v>
       </c>
       <c r="N3" t="n">
-        <v>1368.450841630397</v>
+        <v>1004.026626739088</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>1482.965550981518</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1482.965550981518</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.9959456256229</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="C4" t="n">
-        <v>512.0233825045389</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7066096313096</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="E4" t="n">
-        <v>182.4984037841632</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="F4" t="n">
-        <v>182.4984037841632</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841632</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J4" t="n">
-        <v>38.7126666327444</v>
+        <v>96.19346351647556</v>
       </c>
       <c r="K4" t="n">
-        <v>38.7126666327444</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271652</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>784.587782897416</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773452</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453215</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375116</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303051</v>
+        <v>1888.06815130305</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822186</v>
+        <v>1717.933103822185</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822186</v>
+        <v>1474.593756048085</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322491</v>
+        <v>1194.40930754839</v>
       </c>
       <c r="V4" t="n">
-        <v>1375.357086475434</v>
+        <v>912.6978401564184</v>
       </c>
       <c r="W4" t="n">
-        <v>1100.504682647947</v>
+        <v>637.8454363289313</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.504682647947</v>
+        <v>599.0071408064867</v>
       </c>
       <c r="Y4" t="n">
-        <v>874.1619143376886</v>
+        <v>372.6643724962288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4570,49 +4570,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2178.881103032561</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1957.955532077195</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1699.600622673607</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1699.600622673607</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1699.600622673607</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>1287.880623841354</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962446</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="L6" t="n">
+        <v>119.1699405917395</v>
+      </c>
+      <c r="M6" t="n">
+        <v>119.1699405917395</v>
+      </c>
+      <c r="N6" t="n">
         <v>669.8354755761777</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>1220.501010560616</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1220.501010560616</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1771.166545545054</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548.7617390986079</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>376.7891759775239</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4724031042946</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675126</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>965.2704761209314</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.9277078106735</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1133.6911139303</v>
+        <v>862.5982923554784</v>
       </c>
       <c r="C8" t="n">
-        <v>1110.830787984004</v>
+        <v>839.7379664091826</v>
       </c>
       <c r="D8" t="n">
-        <v>1091.578571209409</v>
+        <v>820.4857496345869</v>
       </c>
       <c r="E8" t="n">
-        <v>1069.64203539767</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>644.5178535870707</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>240.1787911765193</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O8" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.836344226536</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1149.499074181426</v>
+        <v>878.4062526066044</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.6214433194471</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>692.6214433194471</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
         <v>692.6214433194471</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.130180341771</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.7874120315128</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>292.0244587153427</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409524</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M12" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N12" t="n">
-        <v>1782.102586447038</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O12" t="n">
-        <v>1782.102586447038</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603.7382302102652</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>603.7382302102652</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D13" t="n">
-        <v>440.4214573370359</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E13" t="n">
-        <v>440.4214573370359</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1629.208766294176</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1347.497298902205</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1072.644895074718</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>830.0809985205232</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>603.7382302102652</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>338.6504695827671</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1054.158777558266</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1983.783825177543</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291426</v>
@@ -5354,22 +5354,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N15" t="n">
-        <v>964.4851292537592</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
         <v>1828.971033901635</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>798.2592150595294</v>
+        <v>796.0638950398506</v>
       </c>
       <c r="C16" t="n">
-        <v>798.2592150595294</v>
+        <v>624.0913319187666</v>
       </c>
       <c r="D16" t="n">
-        <v>634.9424421863001</v>
+        <v>460.7745590455373</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>294.5663531983909</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>122.7045789729513</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>122.7045789729513</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>122.7045789729513</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5466,22 +5466,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.018283751469</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.165879923982</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.601983369787</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y16" t="n">
-        <v>798.2592150595294</v>
+        <v>986.2298637519162</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5518,16 +5518,16 @@
         <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O17" t="n">
         <v>3833.214576747413</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,43 +5761,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5928,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O24" t="n">
         <v>648.6278400003578</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>960.064176771508</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>960.064176771508</v>
       </c>
       <c r="D25" t="n">
-        <v>154.4092158344085</v>
+        <v>796.7474038982787</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>630.5391980511322</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="26">
@@ -6232,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>181.2584116732448</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
         <v>3833.214576747414</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6919,70 +6919,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5440612468791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>923.0523692223782</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2856.963518260713</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747414</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O36" t="n">
         <v>648.6278400003578</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>847.3030669618348</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>847.3030669618348</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7107,40 +7107,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025262</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251162</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359495</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320078</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>847.3030669618348</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>847.3030669618348</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
         <v>1446.844867123559</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>3561.675246955778</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>3561.675246955778</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>3561.675246955778</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M42" t="n">
-        <v>3561.675246955778</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.167063056836</v>
+        <v>960.064176771508</v>
       </c>
       <c r="C43" t="n">
-        <v>850.1944999357522</v>
+        <v>788.0916136504239</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>624.7748407771946</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>458.5666349300482</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>458.5666349300482</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1785.357631525569</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1510.505227698082</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.941331143888</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.333031768902</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7663,37 +7663,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>3309.623006780059</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>4398.937953252929</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>4398.937953252929</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.167063056836</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1785.357631525569</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1510.505227698082</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1438.67580007916</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.333031768902</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>133.7286389557945</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865924</v>
+        <v>522.0887335865922</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534013</v>
+        <v>521.2079540534011</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884156</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>501.6211175340756</v>
+        <v>521.1676505099933</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873028</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681988</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662975</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>122.5282489949851</v>
+        <v>505.1197193675109</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761917</v>
+        <v>506.9485808761914</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>390.8523058559578</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.64739370150473</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065659</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,10 +8309,10 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>221.0580860608534</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>69.11270732058333</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>268.1550667350194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8938,19 +8938,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>743.9259979858332</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9017,10 +9017,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>263.0152231166563</v>
       </c>
       <c r="O15" t="n">
-        <v>896.3899752251272</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147979</v>
       </c>
       <c r="N17" t="n">
-        <v>632.4842746885287</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1117.346331829804</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>384.5745552399217</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>924.3306556055946</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9728,10 +9728,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P24" t="n">
         <v>745.2028786174529</v>
@@ -9880,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>398.5805034488242</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>749.1541615704315</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1027.220259954781</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>135.7243512442234</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806241</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>574.9403427290242</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>649.6845753175837</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>991.4483453949176</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766258</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>26.30381795590436</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931340906</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>86.31857771728002</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.3286545948307</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>78.57303566567526</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>63.5299405605043</v>
       </c>
       <c r="E19" t="n">
-        <v>89.290777368146</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>63.52994056050119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>52.9126250770988</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>86.37998250393285</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0981677402028</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>103.3684254741816</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.02230608378663</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.0271242459197</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.91410070006317</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>169.0271242459197</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452665</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452665</v>
       </c>
     </row>
     <row r="9">
@@ -26316,7 +26316,7 @@
         <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="D2" t="n">
         <v>509637.3345097678</v>
@@ -26331,31 +26331,31 @@
         <v>491776.6027452663</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="I2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="J2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="J2" t="n">
-        <v>491776.6027452664</v>
-      </c>
       <c r="K2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="L2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="M2" t="n">
-        <v>491776.602745266</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="N2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="O2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="P2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452664</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695917</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361173</v>
+        <v>23406.83367361182</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802892</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.6003570194</v>
+        <v>18646.60035701947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="F4" t="n">
         <v>800.060259943367</v>
-      </c>
-      <c r="F4" t="n">
-        <v>800.0602599433671</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
+        <v>800.0602599433673</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
-      </c>
-      <c r="I4" t="n">
-        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433668</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="P4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216135</v>
+        <v>63041.22282216133</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26487,7 +26487,7 @@
         <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>128382.3515402919</v>
       </c>
       <c r="C6" t="n">
-        <v>279276.500466435</v>
+        <v>279276.5004664349</v>
       </c>
       <c r="D6" t="n">
         <v>302683.3341400467</v>
       </c>
       <c r="E6" t="n">
-        <v>197487.1237402528</v>
+        <v>197436.0930780684</v>
       </c>
       <c r="F6" t="n">
-        <v>413226.4802968932</v>
+        <v>413175.4496347089</v>
       </c>
       <c r="G6" t="n">
-        <v>413226.4802968933</v>
+        <v>413175.449634709</v>
       </c>
       <c r="H6" t="n">
-        <v>413226.4802968932</v>
+        <v>413175.4496347092</v>
       </c>
       <c r="I6" t="n">
-        <v>413226.4802968932</v>
+        <v>413175.4496347092</v>
       </c>
       <c r="J6" t="n">
-        <v>286649.2117166041</v>
+        <v>286598.1810544198</v>
       </c>
       <c r="K6" t="n">
-        <v>394579.8799398738</v>
+        <v>394528.8492776896</v>
       </c>
       <c r="L6" t="n">
-        <v>413226.4802968933</v>
+        <v>413175.4496347089</v>
       </c>
       <c r="M6" t="n">
-        <v>233162.6088417253</v>
+        <v>233111.5781795415</v>
       </c>
       <c r="N6" t="n">
-        <v>413226.4802968934</v>
+        <v>413175.4496347091</v>
       </c>
       <c r="O6" t="n">
-        <v>413226.4802968933</v>
+        <v>413175.4496347089</v>
       </c>
       <c r="P6" t="n">
-        <v>413226.4802968934</v>
+        <v>413175.4496347091</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>29.49268397686441</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>79.87198984533148</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>217.126699559465</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>201.6883450214328</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.75377325007406</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>344.1477632635552</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>96.03257009130519</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>109.2060354370382</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>101.1659342747065</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>142.4211071786317</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-2.105274375258606e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>97.9640381609852</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>464.2301581780515</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1852207814434</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>368.1052675669793</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01063771760286589</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485794</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>73.06155854104179</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>144.2794790315872</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>191.6381265752669</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>238.7351072494329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35658,19 +35658,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>706.6463751513871</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.6721949031147</v>
       </c>
       <c r="O15" t="n">
-        <v>873.218085502905</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153661</v>
       </c>
       <c r="N17" t="n">
-        <v>595.2046518540826</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35962,7 +35962,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1096.003303616263</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>886.8993927061629</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968729</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36363,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P24" t="n">
         <v>723.4320374126243</v>
@@ -36600,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>726.6390748562019</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>989.7889970553492</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3043917586369</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811924</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.304556440437</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>627.1694886033541</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>954.1687225604716</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432924</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.207037443576385</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
